--- a/biology/Zoologie/Caeruleuptychia/Caeruleuptychia.xlsx
+++ b/biology/Zoologie/Caeruleuptychia/Caeruleuptychia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Caeruleuptychia est un genre sud-américain de lépidoptères (papillons) de la famille des Nymphalidae et de la sous-famille des Satyrinae.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Caeruleuptychia a été décrit par l'entomologiste allemand Walter Forster en 1964[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Caeruleuptychia a été décrit par l'entomologiste allemand Walter Forster en 1964.
 Son espèce type est Euptychia caerulea Butler, 1869.
 </t>
         </is>
@@ -543,26 +557,28 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>D'après FUNET Tree of Life  (13 avril 2019)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>D'après FUNET Tree of Life  (13 avril 2019) :
 Caeruleuptychia aegrota (Butler, 1867) — Brésil
-Caeruleuptychia brixius (Godart, [1824]) — Brésil, Guyane[3]
-Caeruleuptychia caerulea (Butler, 1869) — Brésil, Guyane[3]
+Caeruleuptychia brixius (Godart, ) — Brésil, Guyane
+Caeruleuptychia caerulea (Butler, 1869) — Brésil, Guyane
 Caeruleuptychia coelestis (Butler, 1867) — Brésil
 Caeruleuptychia coelica (Hewitson, 1869) — Équateur
 Caeruleuptychia cyanites (Butler, 1871) — Brésil, Argentine
 Caeruleuptychia divina (Weymer, 1911) — Bolivie
 Caeruleuptychia glauca (Weymer, 1911) — Bolivie
 Caeruleuptychia helena (Anken, 1994) — Brésil
-Caeruleuptychia helios (Weymer, 1911) — Bolivie, Guyane[3]
+Caeruleuptychia helios (Weymer, 1911) — Bolivie, Guyane
 Caeruleuptychia lobelia (Butler, 1870) — Bolivie, Équateur
 Caeruleuptychia mare (Butler, 1869) — Brésil
-Caeruleuptychia penicillata (Godman, 1905) — Brésil, Guyane[3]
+Caeruleuptychia penicillata (Godman, 1905) — Brésil, Guyane
 Caeruleuptychia pilata (Butler, 1867) — Brésil
 Caeruleuptychia scopulata (Godman, 1905) — Panama, Bolivie, Pérou
 Caeruleuptychia tenera (Weymer, 1911) — Bolivie
-Caeruleuptychia twalela Brévignon, 2005 — Guyane[3]
+Caeruleuptychia twalela Brévignon, 2005 — Guyane
 Caeruleuptychia umbrosa (Butler, 1870) — Équateur, Pérou
 Caeruleuptychia urania (Butler, 1867) — Brésil
 Caeruleuptychia ziza (Butler, 1869) — Pérou</t>
